--- a/25-Aggro Control System 仇恨系统.xlsx
+++ b/25-Aggro Control System 仇恨系统.xlsx
@@ -2,21 +2,144 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Note标签" sheetId="1" r:id="rId1"/>
-    <sheet name="插件指令" sheetId="2" r:id="rId2"/>
-    <sheet name="插件参数" sheetId="3" r:id="rId3"/>
+    <sheet name="介绍" sheetId="4" r:id="rId1"/>
+    <sheet name="Note标签" sheetId="1" r:id="rId2"/>
+    <sheet name="插件指令" sheetId="2" r:id="rId3"/>
+    <sheet name="插件参数" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>如今，在许多RPG游戏中，一个常见的机制是控制敌人以队伍成员为目标的方式。</t>
+  </si>
+  <si>
+    <t>这可以是挑衅（provocations）、嘲讽（taunts）和仇恨（aggro）的形式。</t>
+  </si>
+  <si>
+    <t>挑衅（Provocations）以状态的形式出现，当一个单位对目标施加挑衅状态时，目标必须在使用单目标技能时攻击挑衅者。</t>
+  </si>
+  <si>
+    <t>此插件提供对多个挑衅的支持，并且将根据状态的优先级值对此类挑衅给予关注。</t>
+  </si>
+  <si>
+    <t>嘲讽（Taunts）是引导对手将注意力集中在队伍成员身上的第三种方式。</t>
+  </si>
+  <si>
+    <t>嘲讽效果可以分为全局嘲讽、物理嘲讽、魔法嘲讽或某些仅命中嘲讽，这些嘲讽几乎可以应用于任何特征对象。</t>
+  </si>
+  <si>
+    <t>仇恨（Aggro）是一个数值，用于确定目标队员被敌方部队攻击的频率的可能性和/或优先级。</t>
+  </si>
+  <si>
+    <t>仇恨值越高，被攻击的可能性就越大。可以打开一个选项（或通过注释标签），将敌人设置为始终以仇恨值最高的队伍成员为目标。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·三种不同的方式来影响敌人应该攻击的目标：挑衅、嘲讽和仇恨。</t>
+  </si>
+  <si>
+    <t>·挑衅和嘲讽效果对演员和敌人都有效。</t>
+  </si>
+  <si>
+    <t>·仇恨效果在战斗中积累，可以通过notetag值、插件命令和/或插件参数进行操作。</t>
+  </si>
+  <si>
+    <t>·挑衅的战斗者可以显示挑衅线，以指示哪个单位挑衅了他们。</t>
+  </si>
+  <si>
+    <t>·嘲讽单位可以反复播放动画，以快速向玩家传递有关其嘲讽属性的信息。</t>
+  </si>
+  <si>
+    <t>·可以显示在演员精灵头上的仪表，以显示该演员与其他演员相比拥有多少攻击力。</t>
+  </si>
+  <si>
+    <t>Aggro、Provoke和Taunts是如何工作的</t>
+  </si>
+  <si>
+    <t>Provoke    挑衅</t>
+  </si>
+  <si>
+    <t>挑衅以状态的形式出现，当一个单位对目标施加挑衅状态时，目标必须在使用单目标技能时攻击挑衅者。
+此插件提供对多个挑衅的支持，并且将根据状态的数据库优先级值对此类挑衅给予关注。</t>
+  </si>
+  <si>
+    <t>挑衅只会持续到状态本身的持续时间。
+如果通过重新应用Provoke状态来刷新状态的持续时间，则该状态的挑衅者将切换到应用新添加状态的挑衅者。</t>
+  </si>
+  <si>
+    <t>当一名角色选择了一个动作的目标，而该角色被另一队的敌人挑衅时，该玩家的选择仅限于挑衅者。</t>
+  </si>
+  <si>
+    <t>可以通过&lt;Bypass Provoke&gt;注释标签绕过Provoke。</t>
+  </si>
+  <si>
+    <t>Taunts    嘲讽</t>
+  </si>
+  <si>
+    <t>Taunts是引导对手将注意力集中在队伍成员身上的第三种方式。
+嘲讽效果可以分为全局嘲讽、物理嘲讽、魔法嘲讽或某些仅命中嘲讽，这些嘲讽几乎可以应用于任何特征对象。</t>
+  </si>
+  <si>
+    <t>当玩家选择一个目标，而敌方队伍有一个嘲讽单位时，玩家的选择将仅限于具有相关嘲讽类型的目标。</t>
+  </si>
+  <si>
+    <t>可以通过&lt;Bypass Taunt&gt;注释标签绕过Taunts。</t>
+  </si>
+  <si>
+    <t>Aggro    仇恨</t>
+  </si>
+  <si>
+    <t>Aggro是一个数值，用于确定目标队员被敌方部队攻击的频率的可能性和/或优先级。
+仇恨值越高，被攻击的可能性就越大。
+可以打开一个选项（或通过注释标签），将敌人设置为始终以攻击力最高的党员为目标。</t>
+  </si>
+  <si>
+    <t>技能和物品可以通过注释标签和/或它们造成或治愈的伤害来提高用户的仇恨值。
+技能和物品也可以通过注释标签改变目标的仇恨值。</t>
+  </si>
+  <si>
+    <t>通过插件参数，你可以根据用户造成的伤害或治疗程度将Aggro设置为自动提升。</t>
+  </si>
+  <si>
+    <t>-一些敌人可以通过&lt;bypass aggro&gt;标签绕过强制攻击目标，而其他敌人则可以通过&lt;target highest aggro&gt;注释标签强制攻击最高攻击目标；</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>优先顺序是挑衅、嘲讽和仇恨。
+这意味着，如果敌人受到挑衅，对方有嘲讽，并且有一名成员的仇恨值很高，那么敌人总是
+先攻击挑衅者，
+然后再攻击嘲讽单位，
+再攻击攻击仇恨值很高的单位。</t>
+  </si>
   <si>
     <t>优先级：Provoke（挑衅） &gt; Taunts（嘲讽） &gt; Aggro（仇恨）</t>
   </si>
@@ -681,13 +804,13 @@
     <t>Show Aggro Gauge</t>
   </si>
   <si>
-    <t>显示仇恨条</t>
+    <t>显示威胁条</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -740,31 +863,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,14 +884,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,6 +923,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,7 +988,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,14 +1029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -933,49 +1056,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,121 +1194,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,21 +1247,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1171,6 +1279,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,152 +1352,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,56 +1542,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1767,11 +1896,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="113.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="2:2">
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:2">
+      <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="2:2">
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="2:2">
+      <c r="B35" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="2:2">
+      <c r="B36" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="67.5" spans="2:2">
+      <c r="B41" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1783,241 +2098,241 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:3">
       <c r="A17" s="12" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:3">
       <c r="A18" s="12" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:3">
       <c r="A19" s="12" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="1:3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="39" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="39" spans="1:3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="37.5" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="67.5" spans="1:3">
       <c r="A27" s="12" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="12" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -2025,25 +2340,25 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2053,13 +2368,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -2070,44 +2385,44 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2117,13 +2432,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2136,20 +2451,20 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -2157,15 +2472,15 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>125</v>
@@ -2173,10 +2488,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2184,10 +2499,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1">
         <v>0.8</v>
@@ -2195,21 +2510,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1">
         <v>255</v>
@@ -2217,10 +2532,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2228,10 +2543,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1">
         <v>256</v>
@@ -2239,10 +2554,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
@@ -2250,15 +2565,15 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -2266,10 +2581,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>1</v>
@@ -2277,34 +2592,34 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>1</v>
@@ -2312,15 +2627,15 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -2328,10 +2643,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -2339,10 +2654,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -2350,15 +2665,15 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1">
         <v>60</v>
@@ -2366,10 +2681,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>1</v>
@@ -2377,10 +2692,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>1</v>
@@ -2388,20 +2703,20 @@
     </row>
     <row r="37" ht="18.75" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C39" s="1" t="b">
         <v>1</v>
@@ -2412,10 +2727,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1">
         <v>0.1</v>
@@ -2423,10 +2738,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C41" s="1">
         <v>0.5</v>
@@ -2434,10 +2749,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C43" s="6" t="b">
         <v>0</v>
@@ -2448,10 +2763,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C44" s="6" t="b">
         <v>1</v>
@@ -2462,15 +2777,15 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="b">
         <v>1</v>
@@ -2478,10 +2793,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="b">
         <v>1</v>
@@ -2489,16 +2804,16 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
